--- a/Gamedev Detective (working title)/Assets/Text/ExcelFiles/Dialogue Marlon.xlsx
+++ b/Gamedev Detective (working title)/Assets/Text/ExcelFiles/Dialogue Marlon.xlsx
@@ -1,26 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThefitzyG\Documents\projects\MadGamerz\Gamedev Detective (working title)\Assets\Text\ExcelFiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FF54ED-9356-4E90-9309-5C33A019E478}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-21456" yWindow="3679" windowWidth="18851" windowHeight="9844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="DialogueMarlin" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="DialogueMarlin" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Emails Etc Marlon" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="93">
   <si>
     <t>Line</t>
   </si>
@@ -49,6 +41,15 @@
     <t>#Side reading Marlin's email</t>
   </si>
   <si>
+    <t>An email from &lt;b&gt;Sibeal&lt;/b&gt;: |"fuck you marlo!" |That was... something....</t>
+  </si>
+  <si>
+    <t>Sibeils Recording</t>
+  </si>
+  <si>
+    <t>I know she’s stressed but I wasnt even allowed to speak. And it was humiliating being given out to in front of Casey and Peter as if they needed another excuse to think im incopetant….. Do you… think she was right? Nevermind im probably overthinking it, we are so close after all.</t>
+  </si>
+  <si>
     <t>Marlin! c'est ma béte noir</t>
   </si>
   <si>
@@ -58,7 +59,7 @@
     <t># Opening Marlons Office</t>
   </si>
   <si>
-    <t>Maybe I can find the key in here?</t>
+    <t xml:space="preserve">Maybe I can find the key in here? </t>
   </si>
   <si>
     <t>Peut-être que je peux trouver la clé ici ?</t>
@@ -67,7 +68,7 @@
     <t># Looking at the Door</t>
   </si>
   <si>
-    <t>Dammit, the door locked behind me!</t>
+    <t xml:space="preserve">Dammit, the door locked behind me! </t>
   </si>
   <si>
     <t>Merde, la porte s'est verrouillée derrière moi !</t>
@@ -76,34 +77,64 @@
     <t>#Looking at the desk</t>
   </si>
   <si>
-    <t>Hopefully marlon doesnt lock his important files</t>
+    <t xml:space="preserve">Hopefully marlon doesnt lock his important files </t>
   </si>
   <si>
     <t>Espérons que marlon ne verrouille pas ses fichiers importants</t>
   </si>
   <si>
+    <t>Marlons email to sibeil</t>
+  </si>
+  <si>
     <t>#Listening to Sibeils recording</t>
   </si>
   <si>
-    <t>She...sounds unlike herself....I never heard about this..</t>
+    <t>Hi Sibeil, don't worry about anything my door is always open after hours, I just don't think anything can be done at the moment. Maybe just don't mention anything to HR, you don't want to turn yourself into that person at the end of development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She...sounds unlike herself....I never heard about this.. </t>
+  </si>
+  <si>
+    <t>Peters email to Marlon</t>
   </si>
   <si>
     <t>Elle...ça ressemble à elle...Je n'en ai jamais entendu parler.</t>
   </si>
   <si>
+    <t>Lad! Just sending a reminder email to send Sibeils work onto me to be checked. By the way, I fixed the papers on your desk. Peter</t>
+  </si>
+  <si>
+    <t>Annoyed note about Peter</t>
+  </si>
+  <si>
     <t>#Looking at Peters sticky note</t>
   </si>
   <si>
-    <t>Why is he asking for sibeils work?</t>
+    <t>I need to change the locks, christ! Peter just cant help himself</t>
+  </si>
+  <si>
+    <t>Email to Peter</t>
+  </si>
+  <si>
+    <t>Dear Peter, I have the latest build from Sibeil, I never got the memo from Jaqueline to send it on to anyone else. Sorry, I will just check with her and then send it right on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why is he asking for sibeils work? </t>
   </si>
   <si>
     <t>Pourquoi demande-t-il que les sibeils fonctionnent?</t>
   </si>
   <si>
+    <t>Email to Jaqueline about the newest build</t>
+  </si>
+  <si>
     <t>#Reading Marlons email to Sibeil</t>
   </si>
   <si>
-    <t>Wow...talk about sticking your head in the sand</t>
+    <t>Dear Jaqueline, The build I recieved on the 21st seemed to have been rolled back to a previous build. It is missing many features we discussed via meetings. I am just wondering if I missed a memo about rolling back to the old style? Is this to compensate for the break in?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wow...talk about sticking your head in the sand </t>
   </si>
   <si>
     <t>Waouh...parler de vous enfoncer la tête dans le sable</t>
@@ -112,7 +143,13 @@
     <t>#Looking at the art</t>
   </si>
   <si>
-    <t>Hmm...a pop art fan...</t>
+    <t>Poster info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hmm...a pop art fan... </t>
+  </si>
+  <si>
+    <t>TRIXIE MOIN! for one night the queen judges, the losers fail and a new queen rises! Drag night 17th of November</t>
   </si>
   <si>
     <t>Hmm...un fan de pop art...</t>
@@ -121,25 +158,37 @@
     <t>#Looking at the drag poster</t>
   </si>
   <si>
-    <t>Oh, I heard about this show. I wonder did I see Marlon there and didnt relise it</t>
+    <t xml:space="preserve">Oh, I heard about this show. |I wonder did I see Marlon there and didnt relise it </t>
+  </si>
+  <si>
+    <t>Val's note to marlon</t>
   </si>
   <si>
     <t>J'ai entendu parler de cette émission. Je me demande si j'ai vu Marlon là-bas et je ne l'ai pas lu</t>
   </si>
   <si>
+    <t xml:space="preserve">Hey! What the fuck! I can't believe you blew me off like that. If you can't handle this, I deserve to know. </t>
+  </si>
+  <si>
     <t>#reading Vals note to Marlon</t>
   </si>
   <si>
-    <t>Maybe I will just leave that where it was</t>
+    <t xml:space="preserve">Maybe I will just leave that where it was </t>
   </si>
   <si>
     <t>Peut-être que je vais laisser ça là où il était</t>
   </si>
   <si>
+    <t>Sibeil email to Marlon</t>
+  </si>
+  <si>
+    <t>Why did you never listen?</t>
+  </si>
+  <si>
     <t>#Looking at Marlons couple picture</t>
   </si>
   <si>
-    <t>Cute...I cant remember the last time I saw marlon with that shine in his eye</t>
+    <t xml:space="preserve">Cute...I cant remember the last time I saw marlon with that shine in his eye </t>
   </si>
   <si>
     <t>Mignonne ... Je ne me souviens pas de la dernière fois où j'ai vu Marlon avec cet éclat dans ses yeux</t>
@@ -148,7 +197,7 @@
     <t>#Reading Marlons annoyed note about peter</t>
   </si>
   <si>
-    <t>If your so annoyed , tell him instead of writing about it to yourself</t>
+    <t xml:space="preserve">If your so annoyed , tell him instead of writing about it to yourself </t>
   </si>
   <si>
     <t>Si vous êtes tellement énervé, dites-lui plutôt que de vous en parler</t>
@@ -157,7 +206,7 @@
     <t>#reading Marlons email to Peter</t>
   </si>
   <si>
-    <t>Deflection i see</t>
+    <t xml:space="preserve">Deflection i see </t>
   </si>
   <si>
     <t>Déviation je vois</t>
@@ -166,7 +215,7 @@
     <t>#Looking at the nail clippers</t>
   </si>
   <si>
-    <t>Not touching that</t>
+    <t xml:space="preserve">Not touching that </t>
   </si>
   <si>
     <t>Ne pas toucher ça</t>
@@ -175,7 +224,7 @@
     <t>#Looking at desk Coffee Stain</t>
   </si>
   <si>
-    <t>hmm..three coffee stains, need the energy Marlon?</t>
+    <t xml:space="preserve">hmm..three coffee stains, need the energy Marlon? </t>
   </si>
   <si>
     <t>Hmm..Trois taches de café, vous avez besoin d'énergie Marlon?</t>
@@ -184,7 +233,7 @@
     <t>#Looking at 2d game before playing</t>
   </si>
   <si>
-    <t>Why was this left open? Better sweep it just in case</t>
+    <t xml:space="preserve">Why was this left open? Better sweep it just in case </t>
   </si>
   <si>
     <t>Pourquoi était-ce laissé ouvert? Mieux vaut balayer juste au cas où</t>
@@ -193,37 +242,77 @@
     <t># Reading Marlons email to jaqueline about the new build sibeil sent</t>
   </si>
   <si>
-    <t>The build went off course? How was it different?</t>
+    <t xml:space="preserve">The build went off course? How was it different? </t>
   </si>
   <si>
     <t>La construction a mal tourné? Comment était-ce différent?</t>
   </si>
   <si>
-    <t>An email from &lt;b&gt;Sibeal&lt;/b&gt;: |"fuck you marlo!" |That was... something.</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I know she’s stressed but I wasnt even allowed to speak. |And it was humiliating being given out to in front of Casey and Peter |as if they needed another excuse to think im incopetant….. Do you… think she was right? |Nevermind im probably overthinking it, we are so close after all. </t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi Sibeil, don't worry about anything my door is always open after hours, I just don't think anything can be done at the moment.  |Maybe just don't mention anything to HR, you don't want to turn yourself into that person at the end of development </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lad! Just sending a reminder email to send Sibeils work onto me to be checked. |By the way, I fixed the papers on your desk. Peter </t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I need to change the locks, christ! Peter just cant help himself </t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Peter, I have the latest build from Sibeil, I never got the memo from Jaqueline to send it on to anyone else. |Sorry, I will just check with her and then send it right on. </t>
+  </si>
+  <si>
+    <t>xxxxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Jaqueline, The build I recieved on the 21st seemed to have been rolled back to a previous build. |It is missing many features we discussed via meetings. |I am just wondering if I missed a memo about rolling back to the old style? |Is this to compensate for the break in? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIXIE MOIN! for one night the queen judges, the losers fail and a new queen rises! Drag night 17th of November </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You got the Shovel! 135795 Press right click to dig in sand or dirt </t>
+  </si>
+  <si>
+    <t>xxxxxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KeyCard... Safe.... 545989.... </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="5">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
-      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -232,48 +321,64 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+  <cellXfs count="10">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -463,31 +568,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="60.625" customWidth="1"/>
-    <col min="2" max="2" width="68.125" customWidth="1"/>
-    <col min="3" max="3" width="86.625" customWidth="1"/>
-    <col min="4" max="4" width="51.125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="60.57"/>
+    <col customWidth="1" min="2" max="2" width="68.14"/>
+    <col customWidth="1" min="3" max="3" width="86.57"/>
+    <col customWidth="1" min="4" max="4" width="51.14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,215 +597,409 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="37.14"/>
+    <col customWidth="1" min="2" max="2" width="86.86"/>
+    <col customWidth="1" min="3" max="3" width="46.57"/>
+    <col customWidth="1" min="4" max="4" width="65.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3">
       <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>